--- a/ED50/Past_Offshore_Genets_ED50.xlsx
+++ b/ED50/Past_Offshore_Genets_ED50.xlsx
@@ -392,7 +392,7 @@
         <v>36.31368496448474</v>
       </c>
       <c r="D2">
-        <v>36.79823847929714</v>
+        <v>36.7982384792938</v>
       </c>
     </row>
     <row r="3">
@@ -408,7 +408,7 @@
         <v>37.13241740625019</v>
       </c>
       <c r="D3">
-        <v>37.51616355034255</v>
+        <v>37.51616355034346</v>
       </c>
     </row>
     <row r="4">
@@ -424,7 +424,7 @@
         <v>36.49173363241678</v>
       </c>
       <c r="D4">
-        <v>37.09873261463982</v>
+        <v>37.09873261463852</v>
       </c>
     </row>
     <row r="5">
@@ -440,7 +440,7 @@
         <v>37.30539930924083</v>
       </c>
       <c r="D5">
-        <v>37.12158476725192</v>
+        <v>37.12158476725313</v>
       </c>
     </row>
     <row r="6">
@@ -456,7 +456,7 @@
         <v>37.50078343496988</v>
       </c>
       <c r="D6">
-        <v>37.18812364602521</v>
+        <v>37.18812364602488</v>
       </c>
     </row>
   </sheetData>

--- a/ED50/Past_Offshore_Genets_ED50.xlsx
+++ b/ED50/Past_Offshore_Genets_ED50.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>36.68646682231329</v>
+        <v>36.74999562515195</v>
       </c>
       <c r="C2">
-        <v>36.31368496448474</v>
+        <v>36.67964383945198</v>
       </c>
       <c r="D2">
-        <v>36.7982384792938</v>
+        <v>36.31682589057031</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>37.048969030224</v>
+        <v>36.98793446843405</v>
       </c>
       <c r="C3">
-        <v>37.13241740625019</v>
+        <v>37.11040202143514</v>
       </c>
       <c r="D3">
-        <v>37.51616355034346</v>
+        <v>37.20786665021228</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>36.89086843901481</v>
+        <v>36.71468764237777</v>
       </c>
       <c r="C4">
-        <v>36.49173363241678</v>
+        <v>36.99752832807091</v>
       </c>
       <c r="D4">
-        <v>37.09873261463852</v>
+        <v>37.16715760869143</v>
       </c>
     </row>
     <row r="5">
@@ -434,13 +434,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>36.94216198422961</v>
+        <v>36.3188415262585</v>
       </c>
       <c r="C5">
-        <v>37.30539930924083</v>
+        <v>37.23163313589489</v>
       </c>
       <c r="D5">
-        <v>37.12158476725313</v>
+        <v>37.38171438225818</v>
       </c>
     </row>
     <row r="6">
@@ -450,13 +450,13 @@
         </is>
       </c>
       <c r="B6">
-        <v>36.95917616377641</v>
+        <v>37.09691046084393</v>
       </c>
       <c r="C6">
-        <v>37.50078343496988</v>
+        <v>36.92083705946173</v>
       </c>
       <c r="D6">
-        <v>37.18812364602488</v>
+        <v>37.09286990000914</v>
       </c>
     </row>
   </sheetData>
